--- a/data/markloop_pinnedregs_graph.xlsx
+++ b/data/markloop_pinnedregs_graph.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="32">
   <si>
     <t>TAKEN FROM sumsum_markloop_pinnedregs.txt</t>
   </si>
@@ -113,6 +113,9 @@
   <si>
     <t>average</t>
   </si>
+  <si>
+    <t>UPDATED 20180301</t>
+  </si>
 </sst>
 </file>
 
@@ -124,7 +127,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +167,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -175,7 +183,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -189,25 +197,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19:U31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -548,12 +561,12 @@
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1">
+    <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -597,7 +610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -641,7 +654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -664,7 +677,7 @@
         <v>26.3</v>
       </c>
       <c r="H4">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="I4">
         <v>182.1</v>
@@ -676,7 +689,7 @@
         <v>132.5</v>
       </c>
       <c r="L4">
-        <v>197.6</v>
+        <v>199.6</v>
       </c>
       <c r="M4">
         <v>69.400000000000006</v>
@@ -685,10 +698,10 @@
         <v>84.4</v>
       </c>
       <c r="O4">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -723,7 +736,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="L5">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M5">
         <v>3.6</v>
@@ -734,8 +747,12 @@
       <c r="O5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="Q5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -758,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="H6">
-        <v>11.9</v>
+        <v>11.4</v>
       </c>
       <c r="I6">
         <v>117.5</v>
@@ -770,7 +787,7 @@
         <v>52.1</v>
       </c>
       <c r="L6">
-        <v>88.9</v>
+        <v>112.7</v>
       </c>
       <c r="M6">
         <v>53.5</v>
@@ -779,10 +796,10 @@
         <v>25.3</v>
       </c>
       <c r="O6">
-        <v>59.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -805,7 +822,7 @@
         <v>-2</v>
       </c>
       <c r="H7">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="I7">
         <v>0.2</v>
@@ -817,7 +834,7 @@
         <v>5.2</v>
       </c>
       <c r="L7">
-        <v>7.4</v>
+        <v>13.1</v>
       </c>
       <c r="M7">
         <v>-4.7</v>
@@ -826,10 +843,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O7">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -852,7 +869,7 @@
         <v>12.2</v>
       </c>
       <c r="H8">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I8">
         <v>64.599999999999994</v>
@@ -864,7 +881,7 @@
         <v>66.5</v>
       </c>
       <c r="L8">
-        <v>81.5</v>
+        <v>53.2</v>
       </c>
       <c r="M8">
         <v>17</v>
@@ -873,10 +890,10 @@
         <v>54</v>
       </c>
       <c r="O8">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -920,7 +937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -943,7 +960,7 @@
         <v>25.1</v>
       </c>
       <c r="H10">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="I10">
         <v>163.6</v>
@@ -955,7 +972,7 @@
         <v>121.7</v>
       </c>
       <c r="L10">
-        <v>182.5</v>
+        <v>182.2</v>
       </c>
       <c r="M10">
         <v>52.3</v>
@@ -967,7 +984,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1002,7 +1019,7 @@
         <v>8.6</v>
       </c>
       <c r="L11">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M11">
         <v>3.6</v>
@@ -1014,7 +1031,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1054,7 @@
         <v>14.8</v>
       </c>
       <c r="H12">
-        <v>9.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I12">
         <v>96.8</v>
@@ -1049,7 +1066,7 @@
         <v>39.1</v>
       </c>
       <c r="L12">
-        <v>80.2</v>
+        <v>101</v>
       </c>
       <c r="M12">
         <v>32.5</v>
@@ -1058,10 +1075,10 @@
         <v>18.600000000000001</v>
       </c>
       <c r="O12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1096,7 +1113,7 @@
         <v>7.5</v>
       </c>
       <c r="L13">
-        <v>5.3</v>
+        <v>11.7</v>
       </c>
       <c r="M13">
         <v>-0.8</v>
@@ -1105,10 +1122,10 @@
         <v>4</v>
       </c>
       <c r="O13">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1131,7 +1148,7 @@
         <v>12.2</v>
       </c>
       <c r="H14">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I14">
         <v>64.599999999999994</v>
@@ -1143,7 +1160,7 @@
         <v>66.5</v>
       </c>
       <c r="L14">
-        <v>77.2</v>
+        <v>49</v>
       </c>
       <c r="M14">
         <v>17</v>
@@ -1152,10 +1169,10 @@
         <v>53.5</v>
       </c>
       <c r="O14">
-        <v>41.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1199,7 +1216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1239,7 @@
         <v>23.9</v>
       </c>
       <c r="H16">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="I16">
         <v>134</v>
@@ -1234,7 +1251,7 @@
         <v>117.1</v>
       </c>
       <c r="L16">
-        <v>174.2</v>
+        <v>168</v>
       </c>
       <c r="M16">
         <v>52.5</v>
@@ -1243,7 +1260,7 @@
         <v>75.3</v>
       </c>
       <c r="O16">
-        <v>87.2</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1281,7 +1298,7 @@
         <v>9.9</v>
       </c>
       <c r="L17">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M17">
         <v>4</v>
@@ -1316,7 +1333,7 @@
         <v>13.4</v>
       </c>
       <c r="H18">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <v>66.099999999999994</v>
@@ -1328,7 +1345,7 @@
         <v>31.5</v>
       </c>
       <c r="L18">
-        <v>70.099999999999994</v>
+        <v>85</v>
       </c>
       <c r="M18">
         <v>32.299999999999997</v>
@@ -1337,7 +1354,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="O18">
-        <v>38.6</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1363,7 +1380,7 @@
         <v>-1.7</v>
       </c>
       <c r="H19">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="I19">
         <v>3.5</v>
@@ -1375,7 +1392,7 @@
         <v>9.1</v>
       </c>
       <c r="L19">
-        <v>7.2</v>
+        <v>13.6</v>
       </c>
       <c r="M19">
         <v>-0.8</v>
@@ -1384,7 +1401,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1410,7 +1427,7 @@
         <v>12.2</v>
       </c>
       <c r="H20">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I20">
         <v>64.599999999999994</v>
@@ -1422,7 +1439,7 @@
         <v>66.5</v>
       </c>
       <c r="L20">
-        <v>77.2</v>
+        <v>49</v>
       </c>
       <c r="M20">
         <v>17</v>
@@ -1431,7 +1448,7 @@
         <v>53.4</v>
       </c>
       <c r="O20">
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1501,7 +1518,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="H22">
-        <v>20.2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I22">
         <v>118.9</v>
@@ -1513,7 +1530,7 @@
         <v>108.3</v>
       </c>
       <c r="L22">
-        <v>165.4</v>
+        <v>156.4</v>
       </c>
       <c r="M22">
         <v>36.700000000000003</v>
@@ -1522,7 +1539,7 @@
         <v>74.099999999999994</v>
       </c>
       <c r="O22">
-        <v>80.2</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1560,7 +1577,7 @@
         <v>7.2</v>
       </c>
       <c r="L23">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M23">
         <v>4.8</v>
@@ -1569,7 +1586,7 @@
         <v>0.9</v>
       </c>
       <c r="O23">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1595,7 +1612,7 @@
         <v>7.8</v>
       </c>
       <c r="H24">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>48.8</v>
@@ -1607,7 +1624,7 @@
         <v>25.1</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="M24">
         <v>10.4</v>
@@ -1616,7 +1633,7 @@
         <v>15.8</v>
       </c>
       <c r="O24">
-        <v>30.1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1642,7 +1659,7 @@
         <v>-0.1</v>
       </c>
       <c r="H25">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I25">
         <v>5.6</v>
@@ -1654,7 +1671,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="L25">
-        <v>8.4</v>
+        <v>14.9</v>
       </c>
       <c r="M25">
         <v>4.5999999999999996</v>
@@ -1663,7 +1680,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O25">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1689,7 +1706,7 @@
         <v>12.2</v>
       </c>
       <c r="H26">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I26">
         <v>64.599999999999994</v>
@@ -1701,7 +1718,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="L26">
-        <v>77.2</v>
+        <v>49</v>
       </c>
       <c r="M26">
         <v>17</v>
@@ -1710,7 +1727,7 @@
         <v>53.2</v>
       </c>
       <c r="O26">
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1792,7 +1809,7 @@
         <v>105.9</v>
       </c>
       <c r="L28">
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M28">
         <v>37.1</v>
@@ -1801,7 +1818,7 @@
         <v>73.099999999999994</v>
       </c>
       <c r="O28">
-        <v>75.599999999999994</v>
+        <v>74.900000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1839,7 +1856,7 @@
         <v>7.2</v>
       </c>
       <c r="L29">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M29">
         <v>5.6</v>
@@ -1874,7 +1891,7 @@
         <v>5.7</v>
       </c>
       <c r="H30">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I30">
         <v>31.8</v>
@@ -1886,7 +1903,7 @@
         <v>22.4</v>
       </c>
       <c r="L30">
-        <v>60</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="M30">
         <v>9.9</v>
@@ -1895,7 +1912,7 @@
         <v>14.9</v>
       </c>
       <c r="O30">
-        <v>24.6</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1921,7 +1938,7 @@
         <v>0.1</v>
       </c>
       <c r="H31">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I31">
         <v>5.6</v>
@@ -1933,7 +1950,7 @@
         <v>10</v>
       </c>
       <c r="L31">
-        <v>8.4</v>
+        <v>14.9</v>
       </c>
       <c r="M31">
         <v>4.5</v>
@@ -1942,7 +1959,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O31">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -1968,7 +1985,7 @@
         <v>12.2</v>
       </c>
       <c r="H32">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I32">
         <v>64.599999999999994</v>
@@ -1980,7 +1997,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="L32">
-        <v>77.2</v>
+        <v>49</v>
       </c>
       <c r="M32">
         <v>17</v>
@@ -1989,7 +2006,7 @@
         <v>53.2</v>
       </c>
       <c r="O32">
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2059,7 +2076,7 @@
         <v>19.5</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I34">
         <v>84.5</v>
@@ -2071,7 +2088,7 @@
         <v>99.6</v>
       </c>
       <c r="L34">
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M34">
         <v>30.5</v>
@@ -2080,7 +2097,7 @@
         <v>73.099999999999994</v>
       </c>
       <c r="O34">
-        <v>71.5</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2118,7 +2135,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L35">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M35">
         <v>5.6</v>
@@ -2127,7 +2144,7 @@
         <v>1.6</v>
       </c>
       <c r="O35">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2153,7 +2170,7 @@
         <v>4.3</v>
       </c>
       <c r="H36">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="I36">
         <v>14.4</v>
@@ -2165,7 +2182,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="L36">
-        <v>60</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="M36">
         <v>2.7</v>
@@ -2174,7 +2191,7 @@
         <v>14.5</v>
       </c>
       <c r="O36">
-        <v>19.5</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2200,7 +2217,7 @@
         <v>0.1</v>
       </c>
       <c r="H37">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I37">
         <v>5.6</v>
@@ -2212,7 +2229,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="L37">
-        <v>8.4</v>
+        <v>14.9</v>
       </c>
       <c r="M37">
         <v>5.0999999999999996</v>
@@ -2221,7 +2238,7 @@
         <v>3.9</v>
       </c>
       <c r="O37">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2247,7 +2264,7 @@
         <v>12.2</v>
       </c>
       <c r="H38">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I38">
         <v>64.599999999999994</v>
@@ -2259,7 +2276,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="L38">
-        <v>77.2</v>
+        <v>49</v>
       </c>
       <c r="M38">
         <v>17</v>
@@ -2268,7 +2285,7 @@
         <v>53.1</v>
       </c>
       <c r="O38">
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2350,7 +2367,7 @@
         <v>98.1</v>
       </c>
       <c r="L40">
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M40">
         <v>30.5</v>
@@ -2359,7 +2376,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O40">
-        <v>71.2</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2397,7 +2414,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L41">
-        <v>19.8</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="M41">
         <v>5.6</v>
@@ -2406,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="O41">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2432,7 +2449,7 @@
         <v>4.3</v>
       </c>
       <c r="H42">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I42">
         <v>4.5</v>
@@ -2444,7 +2461,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="L42">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M42">
         <v>2.7</v>
@@ -2453,7 +2470,7 @@
         <v>14.5</v>
       </c>
       <c r="O42">
-        <v>18.399999999999999</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2491,7 +2508,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="L43">
-        <v>8.4</v>
+        <v>14.9</v>
       </c>
       <c r="M43">
         <v>5.0999999999999996</v>
@@ -2500,7 +2517,7 @@
         <v>3.8</v>
       </c>
       <c r="O43">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2526,7 +2543,7 @@
         <v>12.2</v>
       </c>
       <c r="H44">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="I44">
         <v>64.599999999999994</v>
@@ -2538,7 +2555,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="L44">
-        <v>77.2</v>
+        <v>49</v>
       </c>
       <c r="M44">
         <v>17</v>
@@ -2547,7 +2564,7 @@
         <v>53.1</v>
       </c>
       <c r="O44">
-        <v>41.9</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="2" customFormat="1">
@@ -2826,7 +2843,7 @@
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="5"/>
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="5"/>
@@ -2842,7 +2859,7 @@
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="5"/>
-        <v>197.6</v>
+        <v>199.6</v>
       </c>
       <c r="M56">
         <f t="shared" ca="1" si="5"/>
@@ -2854,7 +2871,7 @@
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -2887,7 +2904,7 @@
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="5"/>
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="5"/>
@@ -2903,7 +2920,7 @@
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="5"/>
-        <v>182.5</v>
+        <v>182.2</v>
       </c>
       <c r="M57">
         <f t="shared" ca="1" si="5"/>
@@ -2948,7 +2965,7 @@
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="5"/>
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="5"/>
@@ -2964,7 +2981,7 @@
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="5"/>
-        <v>174.2</v>
+        <v>168</v>
       </c>
       <c r="M58">
         <f t="shared" ca="1" si="5"/>
@@ -2976,7 +2993,7 @@
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="5"/>
-        <v>87.2</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3009,7 +3026,7 @@
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="5"/>
-        <v>20.2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="5"/>
@@ -3025,7 +3042,7 @@
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="5"/>
-        <v>165.4</v>
+        <v>156.4</v>
       </c>
       <c r="M59">
         <f t="shared" ca="1" si="5"/>
@@ -3037,7 +3054,7 @@
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="5"/>
-        <v>80.2</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3086,7 +3103,7 @@
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="5"/>
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M60">
         <f t="shared" ca="1" si="5"/>
@@ -3098,7 +3115,7 @@
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="5"/>
-        <v>75.599999999999994</v>
+        <v>74.900000000000006</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3131,7 +3148,7 @@
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="5"/>
@@ -3147,7 +3164,7 @@
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="5"/>
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M61">
         <f t="shared" ca="1" si="5"/>
@@ -3159,7 +3176,7 @@
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="5"/>
-        <v>71.5</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3208,7 +3225,7 @@
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="5"/>
-        <v>165.4</v>
+        <v>156.30000000000001</v>
       </c>
       <c r="M62">
         <f t="shared" ca="1" si="5"/>
@@ -3220,7 +3237,7 @@
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="5"/>
-        <v>71.2</v>
+        <v>70.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/markloop_pinnedregs_graph.xlsx
+++ b/data/markloop_pinnedregs_graph.xlsx
@@ -183,8 +183,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -206,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -214,6 +218,8 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -221,6 +227,8 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:R5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F53" sqref="A46:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/markloop_pinnedregs_graph.xlsx
+++ b/data/markloop_pinnedregs_graph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32240" windowHeight="19600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33500" windowHeight="20420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
     <t>average</t>
   </si>
   <si>
-    <t>UPDATED 20180301</t>
+    <t>UPDATED 20180305</t>
   </si>
 </sst>
 </file>
@@ -169,7 +169,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,8 +183,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -210,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -220,6 +222,7 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -229,6 +232,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F53" sqref="A46:F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -691,10 +695,10 @@
         <v>182.1</v>
       </c>
       <c r="J4">
-        <v>97</v>
+        <v>95.2</v>
       </c>
       <c r="K4">
-        <v>132.5</v>
+        <v>131.4</v>
       </c>
       <c r="L4">
         <v>199.6</v>
@@ -706,7 +710,7 @@
         <v>84.4</v>
       </c>
       <c r="O4">
-        <v>106.2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -741,7 +745,7 @@
         <v>-13.7</v>
       </c>
       <c r="K5">
-        <v>8.6999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="L5">
         <v>20.399999999999999</v>
@@ -789,10 +793,10 @@
         <v>117.5</v>
       </c>
       <c r="J6">
-        <v>72.099999999999994</v>
+        <v>68.5</v>
       </c>
       <c r="K6">
-        <v>52.1</v>
+        <v>51.4</v>
       </c>
       <c r="L6">
         <v>112.7</v>
@@ -804,7 +808,7 @@
         <v>25.3</v>
       </c>
       <c r="O6">
-        <v>61.7</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -836,7 +840,7 @@
         <v>0.2</v>
       </c>
       <c r="J7">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="K7">
         <v>5.2</v>
@@ -851,7 +855,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O7">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -883,10 +887,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J8">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K8">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="L8">
         <v>53.2</v>
@@ -898,7 +902,7 @@
         <v>54</v>
       </c>
       <c r="O8">
-        <v>40.1</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -974,10 +978,10 @@
         <v>163.6</v>
       </c>
       <c r="J10">
-        <v>89.8</v>
+        <v>88</v>
       </c>
       <c r="K10">
-        <v>121.7</v>
+        <v>120.6</v>
       </c>
       <c r="L10">
         <v>182.2</v>
@@ -989,7 +993,7 @@
         <v>77.099999999999994</v>
       </c>
       <c r="O10">
-        <v>95</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1024,7 +1028,7 @@
         <v>-13.7</v>
       </c>
       <c r="K11">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="L11">
         <v>20.399999999999999</v>
@@ -1068,10 +1072,10 @@
         <v>96.8</v>
       </c>
       <c r="J12">
-        <v>62.8</v>
+        <v>59.1</v>
       </c>
       <c r="K12">
-        <v>39.1</v>
+        <v>38.5</v>
       </c>
       <c r="L12">
         <v>101</v>
@@ -1083,7 +1087,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="O12">
-        <v>49.5</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1115,7 +1119,7 @@
         <v>2.4</v>
       </c>
       <c r="J13">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="K13">
         <v>7.5</v>
@@ -1162,10 +1166,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J14">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K14">
-        <v>66.5</v>
+        <v>66.8</v>
       </c>
       <c r="L14">
         <v>49</v>
@@ -1177,7 +1181,7 @@
         <v>53.5</v>
       </c>
       <c r="O14">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1253,10 +1257,10 @@
         <v>134</v>
       </c>
       <c r="J16">
-        <v>88.8</v>
+        <v>87</v>
       </c>
       <c r="K16">
-        <v>117.1</v>
+        <v>115.9</v>
       </c>
       <c r="L16">
         <v>168</v>
@@ -1268,7 +1272,7 @@
         <v>75.3</v>
       </c>
       <c r="O16">
-        <v>86.7</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1303,7 +1307,7 @@
         <v>-13.7</v>
       </c>
       <c r="K17">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="L17">
         <v>20.399999999999999</v>
@@ -1347,10 +1351,10 @@
         <v>66.099999999999994</v>
       </c>
       <c r="J18">
-        <v>61.8</v>
+        <v>58.2</v>
       </c>
       <c r="K18">
-        <v>31.5</v>
+        <v>30.9</v>
       </c>
       <c r="L18">
         <v>85</v>
@@ -1362,7 +1366,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="O18">
-        <v>39.700000000000003</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1394,7 +1398,7 @@
         <v>3.5</v>
       </c>
       <c r="J19">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="K19">
         <v>9.1</v>
@@ -1409,7 +1413,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="O19">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1441,10 +1445,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J20">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K20">
-        <v>66.5</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="L20">
         <v>49</v>
@@ -1456,7 +1460,7 @@
         <v>53.4</v>
       </c>
       <c r="O20">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1532,10 +1536,10 @@
         <v>118.9</v>
       </c>
       <c r="J22">
-        <v>87.3</v>
+        <v>85.5</v>
       </c>
       <c r="K22">
-        <v>108.3</v>
+        <v>107.2</v>
       </c>
       <c r="L22">
         <v>156.4</v>
@@ -1547,7 +1551,7 @@
         <v>74.099999999999994</v>
       </c>
       <c r="O22">
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1582,7 +1586,7 @@
         <v>-13.7</v>
       </c>
       <c r="K23">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="L23">
         <v>20.399999999999999</v>
@@ -1594,7 +1598,7 @@
         <v>0.9</v>
       </c>
       <c r="O23">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1626,10 +1630,10 @@
         <v>48.8</v>
       </c>
       <c r="J24">
-        <v>59.8</v>
+        <v>56.2</v>
       </c>
       <c r="K24">
-        <v>25.1</v>
+        <v>24.5</v>
       </c>
       <c r="L24">
         <v>72.099999999999994</v>
@@ -1641,7 +1645,7 @@
         <v>15.8</v>
       </c>
       <c r="O24">
-        <v>31</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1673,10 +1677,10 @@
         <v>5.6</v>
       </c>
       <c r="J25">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="K25">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="L25">
         <v>14.9</v>
@@ -1720,10 +1724,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J26">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K26">
-        <v>66.400000000000006</v>
+        <v>66.7</v>
       </c>
       <c r="L26">
         <v>49</v>
@@ -1735,7 +1739,7 @@
         <v>53.2</v>
       </c>
       <c r="O26">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1811,10 +1815,10 @@
         <v>101.9</v>
       </c>
       <c r="J28">
-        <v>87.3</v>
+        <v>85.5</v>
       </c>
       <c r="K28">
-        <v>105.9</v>
+        <v>104.8</v>
       </c>
       <c r="L28">
         <v>156.30000000000001</v>
@@ -1826,7 +1830,7 @@
         <v>73.099999999999994</v>
       </c>
       <c r="O28">
-        <v>74.900000000000006</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1861,7 +1865,7 @@
         <v>-13.7</v>
       </c>
       <c r="K29">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="L29">
         <v>20.399999999999999</v>
@@ -1905,10 +1909,10 @@
         <v>31.8</v>
       </c>
       <c r="J30">
-        <v>59.8</v>
+        <v>56.2</v>
       </c>
       <c r="K30">
-        <v>22.4</v>
+        <v>21.7</v>
       </c>
       <c r="L30">
         <v>72.099999999999994</v>
@@ -1920,7 +1924,7 @@
         <v>14.9</v>
       </c>
       <c r="O30">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -1952,7 +1956,7 @@
         <v>5.6</v>
       </c>
       <c r="J31">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -1999,10 +2003,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J32">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K32">
-        <v>66.400000000000006</v>
+        <v>66.7</v>
       </c>
       <c r="L32">
         <v>49</v>
@@ -2014,7 +2018,7 @@
         <v>53.2</v>
       </c>
       <c r="O32">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2090,10 +2094,10 @@
         <v>84.5</v>
       </c>
       <c r="J34">
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K34">
-        <v>99.6</v>
+        <v>98.4</v>
       </c>
       <c r="L34">
         <v>156.30000000000001</v>
@@ -2105,7 +2109,7 @@
         <v>73.099999999999994</v>
       </c>
       <c r="O34">
-        <v>70.8</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2140,7 +2144,7 @@
         <v>-13.7</v>
       </c>
       <c r="K35">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="L35">
         <v>20.399999999999999</v>
@@ -2152,7 +2156,7 @@
         <v>1.6</v>
       </c>
       <c r="O35">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2184,10 +2188,10 @@
         <v>14.4</v>
       </c>
       <c r="J36">
-        <v>57.9</v>
+        <v>54.3</v>
       </c>
       <c r="K36">
-        <v>19.100000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="L36">
         <v>72.099999999999994</v>
@@ -2199,7 +2203,7 @@
         <v>14.5</v>
       </c>
       <c r="O36">
-        <v>20.399999999999999</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2231,10 +2235,10 @@
         <v>5.6</v>
       </c>
       <c r="J37">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="K37">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="L37">
         <v>14.9</v>
@@ -2246,7 +2250,7 @@
         <v>3.9</v>
       </c>
       <c r="O37">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2278,10 +2282,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J38">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K38">
-        <v>66.400000000000006</v>
+        <v>66.7</v>
       </c>
       <c r="L38">
         <v>49</v>
@@ -2293,7 +2297,7 @@
         <v>53.1</v>
       </c>
       <c r="O38">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2369,10 +2373,10 @@
         <v>75.7</v>
       </c>
       <c r="J40">
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K40">
-        <v>98.1</v>
+        <v>97</v>
       </c>
       <c r="L40">
         <v>156.30000000000001</v>
@@ -2384,7 +2388,7 @@
         <v>73.400000000000006</v>
       </c>
       <c r="O40">
-        <v>70.5</v>
+        <v>70.2</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2419,7 +2423,7 @@
         <v>-13.7</v>
       </c>
       <c r="K41">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="L41">
         <v>20.399999999999999</v>
@@ -2431,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="O41">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2463,10 +2467,10 @@
         <v>4.5</v>
       </c>
       <c r="J42">
-        <v>57.9</v>
+        <v>54.3</v>
       </c>
       <c r="K42">
-        <v>17.600000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="L42">
         <v>72</v>
@@ -2478,7 +2482,7 @@
         <v>14.5</v>
       </c>
       <c r="O42">
-        <v>19.3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2510,10 +2514,10 @@
         <v>6.8</v>
       </c>
       <c r="J43">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="K43">
-        <v>9.6999999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="L43">
         <v>14.9</v>
@@ -2525,7 +2529,7 @@
         <v>3.8</v>
       </c>
       <c r="O43">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2557,10 +2561,10 @@
         <v>64.599999999999994</v>
       </c>
       <c r="J44">
-        <v>34.299999999999997</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="K44">
-        <v>66.400000000000006</v>
+        <v>66.8</v>
       </c>
       <c r="L44">
         <v>49</v>
@@ -2572,7 +2576,7 @@
         <v>53.1</v>
       </c>
       <c r="O44">
-        <v>39.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="2" customFormat="1">
@@ -2859,11 +2863,11 @@
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>95.2</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="5"/>
-        <v>132.5</v>
+        <v>131.4</v>
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="5"/>
@@ -2879,7 +2883,7 @@
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="5"/>
-        <v>106.2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -2920,11 +2924,11 @@
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>89.8</v>
+        <v>88</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="5"/>
-        <v>121.7</v>
+        <v>120.6</v>
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="5"/>
@@ -2940,7 +2944,7 @@
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -2981,11 +2985,11 @@
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>88.8</v>
+        <v>87</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="5"/>
-        <v>117.1</v>
+        <v>115.9</v>
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="5"/>
@@ -3001,7 +3005,7 @@
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="5"/>
-        <v>86.7</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3042,11 +3046,11 @@
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>87.3</v>
+        <v>85.5</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="5"/>
-        <v>108.3</v>
+        <v>107.2</v>
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="5"/>
@@ -3062,7 +3066,7 @@
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="5"/>
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3103,11 +3107,11 @@
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>87.3</v>
+        <v>85.5</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="5"/>
-        <v>105.9</v>
+        <v>104.8</v>
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="5"/>
@@ -3123,7 +3127,7 @@
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="5"/>
-        <v>74.900000000000006</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3164,11 +3168,11 @@
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="5"/>
-        <v>99.6</v>
+        <v>98.4</v>
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="5"/>
@@ -3184,7 +3188,7 @@
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="5"/>
-        <v>70.8</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3225,11 +3229,11 @@
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>86.5</v>
+        <v>84.6</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="5"/>
-        <v>98.1</v>
+        <v>97</v>
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="5"/>
@@ -3245,7 +3249,7 @@
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="5"/>
-        <v>70.5</v>
+        <v>70.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/markloop_pinnedregs_graph.xlsx
+++ b/data/markloop_pinnedregs_graph.xlsx
@@ -183,8 +183,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -212,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -223,6 +227,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -233,6 +239,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F53" sqref="A46:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/markloop_pinnedregs_graph.xlsx
+++ b/data/markloop_pinnedregs_graph.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
   <si>
     <t>TAKEN FROM sumsum_markloop_pinnedregs.txt</t>
   </si>
@@ -114,7 +114,10 @@
     <t>average</t>
   </si>
   <si>
-    <t>UPDATED 20180305</t>
+    <t>coremk_ch2</t>
+  </si>
+  <si>
+    <t>UPDATED 20180327</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,8 +186,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -216,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -229,6 +234,7 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -241,6 +247,7 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F53" sqref="A46:F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -618,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
@@ -706,7 +713,7 @@
         <v>95.2</v>
       </c>
       <c r="K4">
-        <v>131.4</v>
+        <v>93.2</v>
       </c>
       <c r="L4">
         <v>199.6</v>
@@ -715,10 +722,10 @@
         <v>69.400000000000006</v>
       </c>
       <c r="N4">
-        <v>84.4</v>
+        <v>87.3</v>
       </c>
       <c r="O4">
-        <v>106</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -753,7 +760,7 @@
         <v>-13.7</v>
       </c>
       <c r="K5">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <v>20.399999999999999</v>
@@ -762,13 +769,13 @@
         <v>3.6</v>
       </c>
       <c r="N5">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R5" s="3"/>
     </row>
@@ -804,7 +811,7 @@
         <v>68.5</v>
       </c>
       <c r="K6">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="L6">
         <v>112.7</v>
@@ -813,10 +820,10 @@
         <v>53.5</v>
       </c>
       <c r="N6">
-        <v>25.3</v>
+        <v>28.1</v>
       </c>
       <c r="O6">
-        <v>61.4</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -860,10 +867,10 @@
         <v>-4.7</v>
       </c>
       <c r="N7">
-        <v>4.0999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="O7">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -898,7 +905,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K8">
-        <v>66.8</v>
+        <v>29.6</v>
       </c>
       <c r="L8">
         <v>53.2</v>
@@ -907,10 +914,10 @@
         <v>17</v>
       </c>
       <c r="N8">
-        <v>54</v>
+        <v>53.4</v>
       </c>
       <c r="O8">
-        <v>40.299999999999997</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -989,7 +996,7 @@
         <v>88</v>
       </c>
       <c r="K10">
-        <v>120.6</v>
+        <v>82.8</v>
       </c>
       <c r="L10">
         <v>182.2</v>
@@ -998,10 +1005,10 @@
         <v>52.3</v>
       </c>
       <c r="N10">
-        <v>77.099999999999994</v>
+        <v>77</v>
       </c>
       <c r="O10">
-        <v>94.7</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1036,7 +1043,7 @@
         <v>-13.7</v>
       </c>
       <c r="K11">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="L11">
         <v>20.399999999999999</v>
@@ -1045,10 +1052,10 @@
         <v>3.6</v>
       </c>
       <c r="N11">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="O11">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1083,7 +1090,7 @@
         <v>59.1</v>
       </c>
       <c r="K12">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="L12">
         <v>101</v>
@@ -1092,10 +1099,10 @@
         <v>32.5</v>
       </c>
       <c r="N12">
-        <v>18.600000000000001</v>
+        <v>19.8</v>
       </c>
       <c r="O12">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1130,7 +1137,7 @@
         <v>5.9</v>
       </c>
       <c r="K13">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="L13">
         <v>11.7</v>
@@ -1139,7 +1146,7 @@
         <v>-0.8</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O13">
         <v>3.3</v>
@@ -1177,7 +1184,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K14">
-        <v>66.8</v>
+        <v>29.6</v>
       </c>
       <c r="L14">
         <v>49</v>
@@ -1186,10 +1193,10 @@
         <v>17</v>
       </c>
       <c r="N14">
-        <v>53.5</v>
+        <v>51.9</v>
       </c>
       <c r="O14">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1268,7 +1275,7 @@
         <v>87</v>
       </c>
       <c r="K16">
-        <v>115.9</v>
+        <v>78</v>
       </c>
       <c r="L16">
         <v>168</v>
@@ -1277,10 +1284,10 @@
         <v>52.5</v>
       </c>
       <c r="N16">
-        <v>75.3</v>
+        <v>74.8</v>
       </c>
       <c r="O16">
-        <v>86.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1315,7 +1322,7 @@
         <v>-13.7</v>
       </c>
       <c r="K17">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="L17">
         <v>20.399999999999999</v>
@@ -1324,10 +1331,10 @@
         <v>4</v>
       </c>
       <c r="N17">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="O17">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1362,7 +1369,7 @@
         <v>58.2</v>
       </c>
       <c r="K18">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="L18">
         <v>85</v>
@@ -1371,10 +1378,10 @@
         <v>32.299999999999997</v>
       </c>
       <c r="N18">
-        <v>16.899999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="O18">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1409,7 +1416,7 @@
         <v>5.9</v>
       </c>
       <c r="K19">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="L19">
         <v>13.6</v>
@@ -1418,10 +1425,10 @@
         <v>-0.8</v>
       </c>
       <c r="N19">
-        <v>4.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="O19">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1456,7 +1463,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K20">
-        <v>66.900000000000006</v>
+        <v>29.7</v>
       </c>
       <c r="L20">
         <v>49</v>
@@ -1465,10 +1472,10 @@
         <v>17</v>
       </c>
       <c r="N20">
-        <v>53.4</v>
+        <v>51.5</v>
       </c>
       <c r="O20">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1547,7 +1554,7 @@
         <v>85.5</v>
       </c>
       <c r="K22">
-        <v>107.2</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="L22">
         <v>156.4</v>
@@ -1556,10 +1563,10 @@
         <v>36.700000000000003</v>
       </c>
       <c r="N22">
-        <v>74.099999999999994</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="O22">
-        <v>79.3</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1594,7 +1601,7 @@
         <v>-13.7</v>
       </c>
       <c r="K23">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="L23">
         <v>20.399999999999999</v>
@@ -1603,10 +1610,10 @@
         <v>4.8</v>
       </c>
       <c r="N23">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="O23">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1641,7 +1648,7 @@
         <v>56.2</v>
       </c>
       <c r="K24">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="L24">
         <v>72.099999999999994</v>
@@ -1650,10 +1657,10 @@
         <v>10.4</v>
       </c>
       <c r="N24">
-        <v>15.8</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="O24">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1688,7 +1695,7 @@
         <v>6.4</v>
       </c>
       <c r="K25">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="L25">
         <v>14.9</v>
@@ -1697,7 +1704,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="N25">
-        <v>4.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O25">
         <v>5.8</v>
@@ -1735,7 +1742,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K26">
-        <v>66.7</v>
+        <v>29.5</v>
       </c>
       <c r="L26">
         <v>49</v>
@@ -1744,10 +1751,10 @@
         <v>17</v>
       </c>
       <c r="N26">
-        <v>53.2</v>
+        <v>51.1</v>
       </c>
       <c r="O26">
-        <v>40</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1826,7 +1833,7 @@
         <v>85.5</v>
       </c>
       <c r="K28">
-        <v>104.8</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="L28">
         <v>156.30000000000001</v>
@@ -1835,10 +1842,10 @@
         <v>37.1</v>
       </c>
       <c r="N28">
-        <v>73.099999999999994</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="O28">
-        <v>74.7</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -1873,7 +1880,7 @@
         <v>-13.7</v>
       </c>
       <c r="K29">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="L29">
         <v>20.399999999999999</v>
@@ -1882,10 +1889,10 @@
         <v>5.6</v>
       </c>
       <c r="N29">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="O29">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -1920,7 +1927,7 @@
         <v>56.2</v>
       </c>
       <c r="K30">
-        <v>21.7</v>
+        <v>22.4</v>
       </c>
       <c r="L30">
         <v>72.099999999999994</v>
@@ -1929,7 +1936,7 @@
         <v>9.9</v>
       </c>
       <c r="N30">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="O30">
         <v>25.2</v>
@@ -1967,7 +1974,7 @@
         <v>6.4</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L31">
         <v>14.9</v>
@@ -1976,7 +1983,7 @@
         <v>4.5</v>
       </c>
       <c r="N31">
-        <v>4.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="O31">
         <v>6.7</v>
@@ -2014,7 +2021,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K32">
-        <v>66.7</v>
+        <v>29.5</v>
       </c>
       <c r="L32">
         <v>49</v>
@@ -2023,10 +2030,10 @@
         <v>17</v>
       </c>
       <c r="N32">
-        <v>53.2</v>
+        <v>50.7</v>
       </c>
       <c r="O32">
-        <v>40</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2105,7 +2112,7 @@
         <v>84.6</v>
       </c>
       <c r="K34">
-        <v>98.4</v>
+        <v>60.6</v>
       </c>
       <c r="L34">
         <v>156.30000000000001</v>
@@ -2114,10 +2121,10 @@
         <v>30.5</v>
       </c>
       <c r="N34">
-        <v>73.099999999999994</v>
+        <v>70.3</v>
       </c>
       <c r="O34">
-        <v>70.599999999999994</v>
+        <v>67.400000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2152,7 +2159,7 @@
         <v>-13.7</v>
       </c>
       <c r="K35">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L35">
         <v>20.399999999999999</v>
@@ -2161,10 +2168,10 @@
         <v>5.6</v>
       </c>
       <c r="N35">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="O35">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2199,7 +2206,7 @@
         <v>54.3</v>
       </c>
       <c r="K36">
-        <v>18.5</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="L36">
         <v>72.099999999999994</v>
@@ -2208,10 +2215,10 @@
         <v>2.7</v>
       </c>
       <c r="N36">
-        <v>14.5</v>
+        <v>13.9</v>
       </c>
       <c r="O36">
-        <v>20.100000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2246,7 +2253,7 @@
         <v>7.4</v>
       </c>
       <c r="K37">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="L37">
         <v>14.9</v>
@@ -2255,10 +2262,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="N37">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="O37">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2293,7 +2300,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K38">
-        <v>66.7</v>
+        <v>29.5</v>
       </c>
       <c r="L38">
         <v>49</v>
@@ -2302,10 +2309,10 @@
         <v>17</v>
       </c>
       <c r="N38">
-        <v>53.1</v>
+        <v>50.5</v>
       </c>
       <c r="O38">
-        <v>40</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2384,7 +2391,7 @@
         <v>84.6</v>
       </c>
       <c r="K40">
-        <v>97</v>
+        <v>58.9</v>
       </c>
       <c r="L40">
         <v>156.30000000000001</v>
@@ -2393,10 +2400,10 @@
         <v>30.5</v>
       </c>
       <c r="N40">
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="O40">
-        <v>70.2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2431,7 +2438,7 @@
         <v>-13.7</v>
       </c>
       <c r="K41">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="L41">
         <v>20.399999999999999</v>
@@ -2440,10 +2447,10 @@
         <v>5.6</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O41">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -2478,7 +2485,7 @@
         <v>54.3</v>
       </c>
       <c r="K42">
-        <v>16.899999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="L42">
         <v>72</v>
@@ -2487,10 +2494,10 @@
         <v>2.7</v>
       </c>
       <c r="N42">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="O42">
-        <v>19</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -2534,10 +2541,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="N43">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="O43">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -2572,7 +2579,7 @@
         <v>36.700000000000003</v>
       </c>
       <c r="K44">
-        <v>66.8</v>
+        <v>29.6</v>
       </c>
       <c r="L44">
         <v>49</v>
@@ -2581,10 +2588,10 @@
         <v>17</v>
       </c>
       <c r="N44">
-        <v>53.1</v>
+        <v>50.5</v>
       </c>
       <c r="O44">
-        <v>40</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="2" customFormat="1">
@@ -2875,7 +2882,7 @@
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="5"/>
-        <v>131.4</v>
+        <v>93.2</v>
       </c>
       <c r="L56">
         <f t="shared" ca="1" si="5"/>
@@ -2887,11 +2894,11 @@
       </c>
       <c r="N56">
         <f t="shared" ca="1" si="5"/>
-        <v>84.4</v>
+        <v>87.3</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="5"/>
-        <v>106</v>
+        <v>103.3</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -2936,7 +2943,7 @@
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="5"/>
-        <v>120.6</v>
+        <v>82.8</v>
       </c>
       <c r="L57">
         <f t="shared" ca="1" si="5"/>
@@ -2948,11 +2955,11 @@
       </c>
       <c r="N57">
         <f t="shared" ca="1" si="5"/>
-        <v>77.099999999999994</v>
+        <v>77</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="5"/>
-        <v>94.7</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -2997,7 +3004,7 @@
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="5"/>
-        <v>115.9</v>
+        <v>78</v>
       </c>
       <c r="L58">
         <f t="shared" ca="1" si="5"/>
@@ -3009,11 +3016,11 @@
       </c>
       <c r="N58">
         <f t="shared" ca="1" si="5"/>
-        <v>75.3</v>
+        <v>74.8</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="5"/>
-        <v>86.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -3058,7 +3065,7 @@
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="5"/>
-        <v>107.2</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="L59">
         <f t="shared" ca="1" si="5"/>
@@ -3070,11 +3077,11 @@
       </c>
       <c r="N59">
         <f t="shared" ca="1" si="5"/>
-        <v>74.099999999999994</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="5"/>
-        <v>79.3</v>
+        <v>76.2</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3119,7 +3126,7 @@
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="5"/>
-        <v>104.8</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="L60">
         <f t="shared" ca="1" si="5"/>
@@ -3131,11 +3138,11 @@
       </c>
       <c r="N60">
         <f t="shared" ca="1" si="5"/>
-        <v>73.099999999999994</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="5"/>
-        <v>74.7</v>
+        <v>71.599999999999994</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3180,7 +3187,7 @@
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="5"/>
-        <v>98.4</v>
+        <v>60.6</v>
       </c>
       <c r="L61">
         <f t="shared" ca="1" si="5"/>
@@ -3192,11 +3199,11 @@
       </c>
       <c r="N61">
         <f t="shared" ca="1" si="5"/>
-        <v>73.099999999999994</v>
+        <v>70.3</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="5"/>
-        <v>70.599999999999994</v>
+        <v>67.400000000000006</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3241,7 +3248,7 @@
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="5"/>
-        <v>97</v>
+        <v>58.9</v>
       </c>
       <c r="L62">
         <f t="shared" ca="1" si="5"/>
@@ -3253,11 +3260,11 @@
       </c>
       <c r="N62">
         <f t="shared" ca="1" si="5"/>
-        <v>73.400000000000006</v>
+        <v>70.2</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="5"/>
-        <v>70.2</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data/markloop_pinnedregs_graph.xlsx
+++ b/data/markloop_pinnedregs_graph.xlsx
@@ -186,8 +186,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -221,7 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -235,6 +239,8 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -248,6 +254,8 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F53" sqref="A46:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
